--- a/aulas/aula_3_estrutura/dados_turma_1.xlsx
+++ b/aulas/aula_3_estrutura/dados_turma_1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="67">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -182,6 +182,36 @@
   </si>
   <si>
     <t>Indie</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>MPB</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>Ação</t>
   </si>
 </sst>
 </file>
@@ -1252,6 +1282,718 @@
         <v>39</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>45150.79322677084</v>
+      </c>
+      <c r="B11" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>45153.40048153936</v>
+      </c>
+      <c r="B12" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>45153.62005033565</v>
+      </c>
+      <c r="B13" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>45153.847499270836</v>
+      </c>
+      <c r="B14" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>45154.58298748842</v>
+      </c>
+      <c r="B15" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>45155.617178726854</v>
+      </c>
+      <c r="B16" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>45155.84088780092</v>
+      </c>
+      <c r="B17" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>45156.5316131713</v>
+      </c>
+      <c r="B18" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
